--- a/biology/Microbiologie/Milieu_Coletsos/Milieu_Coletsos.xlsx
+++ b/biology/Microbiologie/Milieu_Coletsos/Milieu_Coletsos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le milieu Coletsos est un milieu de culture semi-défini solide, faiblement sélectif et enrichi, employé en microbiologie pour la culture des Mycobactéries et notamment des pathogènes du « complexe Mycobacterium tuberculosis ». Il a été mis au point en 1960 par P.J. Coletsos[1] pour améliorer l'isolement dans les prélèvements humains de Mycobactéries quiescentes ou altérées par l'exposition à certains antibiotiques (en particulier l'isoniazide).
-Coletsos avait mené auparavant des études approfondies afin d'identifier les facteurs défavorables à la croissance des Mycobactéries[2],[3]. C'est sur la base de ces travaux qu'il est parvenu à la composition du milieu qui porte son nom, une formulation à l'œuf semblable au milieu Löwenstein Jensen (LJ) mais considérablement enrichie en divers nutriments et facteurs de croissance. Ce milieu facilite l'isolement de M. tuberculosis et se prête tout particulièrement à la recherche de Mycobactéries plus exigeantes, à culture difficile, que ce soit M. bovis ou d'autres Mycobactéries non tuberculeuses dites atypiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le milieu Coletsos est un milieu de culture semi-défini solide, faiblement sélectif et enrichi, employé en microbiologie pour la culture des Mycobactéries et notamment des pathogènes du « complexe Mycobacterium tuberculosis ». Il a été mis au point en 1960 par P.J. Coletsos pour améliorer l'isolement dans les prélèvements humains de Mycobactéries quiescentes ou altérées par l'exposition à certains antibiotiques (en particulier l'isoniazide).
+Coletsos avait mené auparavant des études approfondies afin d'identifier les facteurs défavorables à la croissance des Mycobactéries,. C'est sur la base de ces travaux qu'il est parvenu à la composition du milieu qui porte son nom, une formulation à l'œuf semblable au milieu Löwenstein Jensen (LJ) mais considérablement enrichie en divers nutriments et facteurs de croissance. Ce milieu facilite l'isolement de M. tuberculosis et se prête tout particulièrement à la recherche de Mycobactéries plus exigeantes, à culture difficile, que ce soit M. bovis ou d'autres Mycobactéries non tuberculeuses dites atypiques.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La base nutritive est extrêmement riche. Par rapport au milieu LJ l'émulsion d'œufs entiers est remplacée par un volume identique d'un mélange à 80% d'œufs entiers et à 20% de jaunes d'œufs. La proportion plus forte de jaunes améliore les propriétés nutritives du milieu car c'est cette partie de l'œuf qui contient la plupart des nutriments (le blanc étant essentiellement une solution aqueuse d'ovalbumine). La proportion de glycérol est identique à celle du milieu LJ mais celle d'amidon (sous forme de fécule de pommes de terre) est quasiment divisée par deux.
-L'osséine est un mélange protéique riche en collagène que l'on extrait de la matrice extracellulaire des os : très proche d'une gélatine, elle joue un rôle nutritif et gélifiant modeste et sert surtout à créer un environnement microaérophile en s'opposant à la diffusion de l'oxygène atmosphérique dans le milieu. Cet effet est particulièrement marqué pour la variante du milieu Coletsos enrichie en osséine car dans ce cas, l'excès d'osséine déposée au fond des tubes en fin de préparation recouvre la surface du milieu après l'inoculation, isolant ainsi l'inoculum de l'air ambiant : c'est la technique de culture  « sous cape » dont Coletsos est l'auteur[4].
-Les facteurs de croissance sont nombreux. Le milieu comporte deux acides aminés, la L-asparagine et l'acide glutamique (sous forme de glutamate de sodium). L'acide citrique et le pyruvate sont deux autres sources d'énergie facilement assimilables : le premier en tant qu'intermédiaire principal du cycle de Krebs et le deuxième comme précurseur direct de l'oxaloacétate (lui aussi impliqué dans le cycle de Krebs) et de l'acétyl-CoA omniprésent dans le métabolisme intermédiaire aérobie. Le magnésium est un facteur de croissance bactérien non spécifique, introduit ici sous forme de citrate et de sulfate. Des éléments métalliques utiles à la croissance bactérienne sont ajoutés en très petites quantités sous forme d'une solution d'oligo-éléments dérivée d'une formule proposée en 1934 par A. Berthelot[5] (seul le sulfate de fer a été supprimé de la formule d'origine). Les cendres d'anthracite sont une autre source d'oligo-éléments.
-Le bleu de tournesol est un extrait végétal issu de lichens dont l'effet trophique a été étudié par Coletsos en même temps que celui du pyruvate et du glutamate[6].
+L'osséine est un mélange protéique riche en collagène que l'on extrait de la matrice extracellulaire des os : très proche d'une gélatine, elle joue un rôle nutritif et gélifiant modeste et sert surtout à créer un environnement microaérophile en s'opposant à la diffusion de l'oxygène atmosphérique dans le milieu. Cet effet est particulièrement marqué pour la variante du milieu Coletsos enrichie en osséine car dans ce cas, l'excès d'osséine déposée au fond des tubes en fin de préparation recouvre la surface du milieu après l'inoculation, isolant ainsi l'inoculum de l'air ambiant : c'est la technique de culture  « sous cape » dont Coletsos est l'auteur.
+Les facteurs de croissance sont nombreux. Le milieu comporte deux acides aminés, la L-asparagine et l'acide glutamique (sous forme de glutamate de sodium). L'acide citrique et le pyruvate sont deux autres sources d'énergie facilement assimilables : le premier en tant qu'intermédiaire principal du cycle de Krebs et le deuxième comme précurseur direct de l'oxaloacétate (lui aussi impliqué dans le cycle de Krebs) et de l'acétyl-CoA omniprésent dans le métabolisme intermédiaire aérobie. Le magnésium est un facteur de croissance bactérien non spécifique, introduit ici sous forme de citrate et de sulfate. Des éléments métalliques utiles à la croissance bactérienne sont ajoutés en très petites quantités sous forme d'une solution d'oligo-éléments dérivée d'une formule proposée en 1934 par A. Berthelot (seul le sulfate de fer a été supprimé de la formule d'origine). Les cendres d'anthracite sont une autre source d'oligo-éléments.
+Le bleu de tournesol est un extrait végétal issu de lichens dont l'effet trophique a été étudié par Coletsos en même temps que celui du pyruvate et du glutamate.
 Le vert malachite est un colorant à structure triarylméthane qui sert d'inhibiteur bactérien à large spectre (comme dans le milieu LJ). Le dihydrogénophosphate de potassium joue le rôle de tampon.
 </t>
         </is>
@@ -547,9 +561,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pour 1600 mL de milieu[7] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pour 1600 mL de milieu :
 œufs entiers homogénéisés : 800 mL
 jaunes d'œuf homogénéisés : 200 mL
 eau distillée : 440 mL
@@ -606,7 +622,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La fabrication du milieu commence par la préparation de quatre solutions, une solution d'oligo-éléments, une solution minérale, une émulsion d'œufs et une solution d'osséine :
 la solution d'oligo-éléments est préparée à l'avance et divisée en aliquotes de quelques millilitres qui sont stérilisées par autoclavage (30 minutes à 110°C) ou filtration stérilisante et stockées au réfrigérateur (durée de conservation supérieure à un an)
